--- a/data/trans_orig/P21D_5_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Clase-trans_orig.xlsx
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3654</v>
+        <v>3015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002974636233506261</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01855318961844911</v>
+        <v>0.01531102452410184</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3360</v>
+        <v>2990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001488471436483117</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008537276092029759</v>
+        <v>0.007598173041347203</v>
       </c>
     </row>
     <row r="8">
@@ -973,16 +973,16 @@
         <v>196341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>193273</v>
+        <v>193912</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>196927</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9970253637664935</v>
+        <v>0.9970253637664936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9814468103815509</v>
+        <v>0.9846889754758983</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1007,16 +1007,16 @@
         <v>392963</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>390189</v>
+        <v>390559</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>393549</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9985115285635171</v>
+        <v>0.9985115285635168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9914627239079715</v>
+        <v>0.9924018269586529</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005267679226221417</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003611195172213047</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="11">
@@ -1174,16 +1174,16 @@
         <v>187842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183464</v>
+        <v>183950</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>188837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9947323207737785</v>
+        <v>0.9947323207737786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9715487072534542</v>
+        <v>0.9741210949675538</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1208,16 +1208,16 @@
         <v>274463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270295</v>
+        <v>270615</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>275458</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9963888048277871</v>
+        <v>0.9963888048277869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812551080722165</v>
+        <v>0.9824191721123033</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6454</v>
+        <v>7709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003533072986525235</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01263799227326163</v>
+        <v>0.01509598907859764</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1333,19 +1333,19 @@
         <v>1972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5156</v>
+        <v>5708</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.005100138212378385</v>
+        <v>0.005100138212378386</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001520945335600427</v>
+        <v>0.001530169706310763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01333338933087178</v>
+        <v>0.01476104724717833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1354,19 +1354,19 @@
         <v>3776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1333</v>
+        <v>1258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8915</v>
+        <v>8829</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.004208321672663517</v>
+        <v>0.004208321672663516</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001485704497257027</v>
+        <v>0.001401416794043383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009935000901196873</v>
+        <v>0.00983913499599443</v>
       </c>
     </row>
     <row r="14">
@@ -1383,16 +1383,16 @@
         <v>508875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>504225</v>
+        <v>502970</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>510679</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9964669270134747</v>
+        <v>0.9964669270134748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9873620077267384</v>
+        <v>0.984904010921402</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1404,19 +1404,19 @@
         <v>384694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>381510</v>
+        <v>380958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386078</v>
+        <v>386074</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9948998617876217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9866666106691281</v>
+        <v>0.9852389527528207</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984790546643995</v>
+        <v>0.9984698302936892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1027</v>
@@ -1425,19 +1425,19 @@
         <v>893570</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>888431</v>
+        <v>888517</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>896013</v>
+        <v>896088</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9957916783273365</v>
+        <v>0.9957916783273363</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.990064999098802</v>
+        <v>0.9901608650040056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9985142955027427</v>
+        <v>0.9985985832059566</v>
       </c>
     </row>
     <row r="15">
@@ -1542,19 +1542,19 @@
         <v>3403</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1209</v>
+        <v>1128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8577</v>
+        <v>7851</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.008774382251096982</v>
+        <v>0.008774382251096981</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003116304991593002</v>
+        <v>0.002908374267781252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02211201764911468</v>
+        <v>0.02024069720891047</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1563,19 +1563,19 @@
         <v>3403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1077</v>
+        <v>1021</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7587</v>
+        <v>8183</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005204887535935131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001647173218008303</v>
+        <v>0.001561623617251769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01160291090257481</v>
+        <v>0.01251446810983147</v>
       </c>
     </row>
     <row r="17">
@@ -1605,19 +1605,19 @@
         <v>384478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>379304</v>
+        <v>380030</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>386672</v>
+        <v>386753</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9912256177489031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9778879823508849</v>
+        <v>0.9797593027910896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9968836950084067</v>
+        <v>0.9970916257322188</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>822</v>
@@ -1626,19 +1626,19 @@
         <v>650485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>646301</v>
+        <v>645705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>652811</v>
+        <v>652867</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9947951124640648</v>
+        <v>0.9947951124640647</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9883970890974254</v>
+        <v>0.9874855318901686</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.998352826781992</v>
+        <v>0.9984383763827485</v>
       </c>
     </row>
     <row r="18">
@@ -1746,16 +1746,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3789</v>
+        <v>3683</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.001724493381168607</v>
+        <v>0.001724493381168606</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01068775253963666</v>
+        <v>0.01038857438807988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3192</v>
+        <v>2939</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00129536890950027</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006764392019181789</v>
+        <v>0.006228201468366557</v>
       </c>
     </row>
     <row r="20">
@@ -1806,16 +1806,16 @@
         <v>353889</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>350711</v>
+        <v>350817</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>354500</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9982755066188316</v>
+        <v>0.9982755066188314</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9893122474603633</v>
+        <v>0.9896114256119203</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>471326</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>468745</v>
+        <v>468998</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>471937</v>
@@ -1836,7 +1836,7 @@
         <v>0.9987046310904996</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9932356079808182</v>
+        <v>0.9937717985316321</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1931,19 +1931,19 @@
         <v>3385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>678</v>
+        <v>1137</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8299</v>
+        <v>8986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00222055494024968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.000444785266044534</v>
+        <v>0.0007461039430351388</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005444634998277901</v>
+        <v>0.005895237720080939</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -1952,19 +1952,19 @@
         <v>5987</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2779</v>
+        <v>2985</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11206</v>
+        <v>11042</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003634719854696317</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001687346735715869</v>
+        <v>0.001812139541953084</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.006803605735686022</v>
+        <v>0.006703758478058012</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -1973,19 +1973,19 @@
         <v>9372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5205</v>
+        <v>5619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15407</v>
+        <v>17549</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.002955019741735498</v>
+        <v>0.002955019741735499</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001641151502137697</v>
+        <v>0.001771713571561034</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004857991469989107</v>
+        <v>0.005533617631943621</v>
       </c>
     </row>
     <row r="23">
@@ -2002,19 +2002,19 @@
         <v>1520913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1515999</v>
+        <v>1515312</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1523620</v>
+        <v>1523161</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9977794450597504</v>
+        <v>0.9977794450597506</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.994555365001722</v>
+        <v>0.9941047622799194</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9995552147339553</v>
+        <v>0.9992538960569649</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2304</v>
@@ -2023,19 +2023,19 @@
         <v>1641127</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1635908</v>
+        <v>1636072</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1644335</v>
+        <v>1644129</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9963652801453038</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9931963942643141</v>
+        <v>0.9932962415219417</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9983126532642842</v>
+        <v>0.998187860458047</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3722</v>
@@ -2044,19 +2044,19 @@
         <v>3162040</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3156005</v>
+        <v>3153863</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3166207</v>
+        <v>3165793</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9970449802582644</v>
+        <v>0.9970449802582645</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9951420085300109</v>
+        <v>0.9944663823680566</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9983588484978623</v>
+        <v>0.9982282864284391</v>
       </c>
     </row>
     <row r="24">
